--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__M_Stationarygenerator_alpha_zero.xlsx
@@ -66,55 +66,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-x + y_1 + y_2</t>
-  </si>
-  <si>
-    <t>0.2737508709830059</t>
+    <t>-0.25 - x + y_1 + y_2</t>
+  </si>
+  <si>
+    <t>0.25</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.6261647232860903</t>
-  </si>
-  <si>
-    <t>0.3970682151407754</t>
-  </si>
-  <si>
-    <t>0.42430544453335306</t>
-  </si>
-  <si>
-    <t>-y_1</t>
-  </si>
-  <si>
-    <t>-1.9722381242334144</t>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>2.3000000000000003</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>1.7000000000000002 - y_1</t>
+  </si>
+  <si>
+    <t>-1.7000000000000002</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.9520276521867266</t>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>4.8</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>0.4691247443517509</t>
-  </si>
-  <si>
-    <t>-y_2</t>
-  </si>
-  <si>
-    <t>-2.1564436298587824</t>
+    <t>-3.8 - y_2</t>
+  </si>
+  <si>
+    <t>-3.8</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.1729467021495048</t>
-  </si>
-  <si>
-    <t>0.7879969931923532</t>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>1.2</t>
   </si>
   <si>
     <t>x</t>
@@ -126,31 +126,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>3.854930883109191</t>
-  </si>
-  <si>
-    <t>1.9722381242334144</t>
-  </si>
-  <si>
-    <t>2.1564436298587824</t>
+    <t>5.25</t>
+  </si>
+  <si>
+    <t>1.7000000000000002</t>
+  </si>
+  <si>
+    <t>3.8</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.646375195332778</t>
-  </si>
-  <si>
-    <t>-1.4532180211365855</t>
+    <t>-1.9000000000000001</t>
+  </si>
+  <si>
+    <t>-0.96</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.3693063393741898</t>
-  </si>
-  <si>
-    <t>-0.5535118449995577</t>
+    <t>2.7999999999999994</t>
+  </si>
+  <si>
+    <t>-2.9000000000000004</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -641,10 +641,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__M_Stationarygenerator_alpha_zero.xlsx
+++ b/experiment/quadratic/ex9.2.4/Experimentos_Generador/ex9.2.4(Quadratic)__M_Stationarygenerator_alpha_zero.xlsx
@@ -66,55 +66,55 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-0.25 - x + y_1 + y_2</t>
-  </si>
-  <si>
-    <t>0.25</t>
-  </si>
-  <si>
-    <t>J_0_L0_v</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>2.3000000000000003</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>1.7000000000000002 - y_1</t>
-  </si>
-  <si>
-    <t>-1.7000000000000002</t>
+    <t>-x + y_1 + y_2</t>
+  </si>
+  <si>
+    <t>5.300000000000001</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>9.7</t>
+  </si>
+  <si>
+    <t>4.85 - y_1</t>
+  </si>
+  <si>
+    <t>-4.85</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>4.8</t>
+    <t>0.94</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-3.8 - y_2</t>
-  </si>
-  <si>
-    <t>-3.8</t>
+    <t>6.800000000000001</t>
+  </si>
+  <si>
+    <t>-4.7 - y_2</t>
+  </si>
+  <si>
+    <t>-4.7</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.38</t>
-  </si>
-  <si>
-    <t>1.2</t>
+    <t>0.89</t>
+  </si>
+  <si>
+    <t>6.6000000000000005</t>
   </si>
   <si>
     <t>x</t>
@@ -126,31 +126,31 @@
     <t>y_2</t>
   </si>
   <si>
-    <t>5.25</t>
-  </si>
-  <si>
-    <t>1.7000000000000002</t>
-  </si>
-  <si>
-    <t>3.8</t>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>4.85</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-1.9000000000000001</t>
-  </si>
-  <si>
-    <t>-0.96</t>
+    <t>-4.54</t>
+  </si>
+  <si>
+    <t>-0.74</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>2.7999999999999994</t>
-  </si>
-  <si>
-    <t>-2.9000000000000004</t>
+    <t>-4.35</t>
+  </si>
+  <si>
+    <t>2.4000000000000004</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -644,7 +644,7 @@
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
